--- a/z0bug_odoo/build/lib.linux-x86_64-2.7/z0bug_odoo/data/purchase_order_line.xlsx
+++ b/z0bug_odoo/build/lib.linux-x86_64-2.7/z0bug_odoo/data/purchase_order_line.xlsx
@@ -452,8 +452,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="0"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -527,12 +528,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -555,8 +560,8 @@
   </sheetPr>
   <dimension ref="A1:J1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A26" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J34" activeCellId="0" sqref="J34"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A27" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2:I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -628,7 +633,7 @@
       <c r="H2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="1" t="n">
+      <c r="I2" s="2" t="n">
         <v>7</v>
       </c>
       <c r="J2" s="1" t="s">
@@ -658,7 +663,7 @@
       <c r="H3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="1" t="n">
+      <c r="I3" s="2" t="n">
         <v>7</v>
       </c>
       <c r="J3" s="1" t="s">
@@ -688,7 +693,7 @@
       <c r="H4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="1" t="n">
+      <c r="I4" s="2" t="n">
         <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
@@ -718,7 +723,7 @@
       <c r="H5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="1" t="n">
+      <c r="I5" s="2" t="n">
         <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
@@ -748,7 +753,7 @@
       <c r="H6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="1" t="n">
+      <c r="I6" s="2" t="n">
         <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
@@ -778,7 +783,7 @@
       <c r="H7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="1" t="n">
+      <c r="I7" s="2" t="n">
         <v>7</v>
       </c>
       <c r="J7" s="1" t="s">
@@ -808,7 +813,7 @@
       <c r="H8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I8" s="1" t="n">
+      <c r="I8" s="2" t="n">
         <v>7</v>
       </c>
       <c r="J8" s="1" t="s">
@@ -838,7 +843,7 @@
       <c r="H9" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I9" s="1" t="n">
+      <c r="I9" s="2" t="n">
         <v>7</v>
       </c>
       <c r="J9" s="1" t="s">
@@ -868,7 +873,7 @@
       <c r="H10" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="I10" s="1" t="n">
+      <c r="I10" s="2" t="n">
         <v>7</v>
       </c>
       <c r="J10" s="1" t="s">
@@ -898,7 +903,7 @@
       <c r="H11" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I11" s="1" t="n">
+      <c r="I11" s="2" t="n">
         <v>7</v>
       </c>
       <c r="J11" s="1" t="s">
@@ -928,7 +933,7 @@
       <c r="H12" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I12" s="1" t="n">
+      <c r="I12" s="2" t="n">
         <v>7</v>
       </c>
       <c r="J12" s="1" t="s">
@@ -958,7 +963,7 @@
       <c r="H13" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I13" s="1" t="n">
+      <c r="I13" s="2" t="n">
         <v>7</v>
       </c>
       <c r="J13" s="1" t="s">
@@ -988,7 +993,7 @@
       <c r="H14" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="I14" s="1" t="n">
+      <c r="I14" s="2" t="n">
         <v>7</v>
       </c>
       <c r="J14" s="1" t="s">
@@ -1018,7 +1023,7 @@
       <c r="H15" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="I15" s="1" t="n">
+      <c r="I15" s="2" t="n">
         <v>7</v>
       </c>
       <c r="J15" s="1" t="s">
@@ -1048,7 +1053,7 @@
       <c r="H16" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="I16" s="1" t="n">
+      <c r="I16" s="2" t="n">
         <v>7</v>
       </c>
       <c r="J16" s="1" t="s">
@@ -1078,7 +1083,7 @@
       <c r="H17" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="I17" s="1" t="n">
+      <c r="I17" s="2" t="n">
         <v>7</v>
       </c>
       <c r="J17" s="1" t="s">
@@ -1108,7 +1113,7 @@
       <c r="H18" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="I18" s="1" t="n">
+      <c r="I18" s="2" t="n">
         <v>7</v>
       </c>
       <c r="J18" s="1" t="s">
@@ -1138,7 +1143,7 @@
       <c r="H19" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="I19" s="1" t="n">
+      <c r="I19" s="2" t="n">
         <v>7</v>
       </c>
       <c r="J19" s="1" t="s">
@@ -1168,7 +1173,7 @@
       <c r="H20" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="I20" s="1" t="n">
+      <c r="I20" s="2" t="n">
         <v>7</v>
       </c>
       <c r="J20" s="1" t="s">
@@ -1198,7 +1203,7 @@
       <c r="H21" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="I21" s="1" t="n">
+      <c r="I21" s="2" t="n">
         <v>7</v>
       </c>
       <c r="J21" s="1" t="s">
@@ -1228,7 +1233,7 @@
       <c r="H22" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="I22" s="1" t="n">
+      <c r="I22" s="2" t="n">
         <v>7</v>
       </c>
       <c r="J22" s="1" t="s">
@@ -1258,7 +1263,7 @@
       <c r="H23" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="I23" s="1" t="n">
+      <c r="I23" s="2" t="n">
         <v>7</v>
       </c>
       <c r="J23" s="1" t="s">
@@ -1288,7 +1293,7 @@
       <c r="H24" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="I24" s="1" t="n">
+      <c r="I24" s="2" t="n">
         <v>7</v>
       </c>
       <c r="J24" s="1" t="s">
@@ -1318,7 +1323,7 @@
       <c r="H25" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="I25" s="1" t="n">
+      <c r="I25" s="2" t="n">
         <v>7</v>
       </c>
       <c r="J25" s="1" t="s">
@@ -1348,7 +1353,7 @@
       <c r="H26" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="I26" s="1" t="n">
+      <c r="I26" s="2" t="n">
         <v>7</v>
       </c>
       <c r="J26" s="1" t="s">
@@ -1378,7 +1383,7 @@
       <c r="H27" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="I27" s="1" t="n">
+      <c r="I27" s="2" t="n">
         <v>7</v>
       </c>
       <c r="J27" s="1" t="s">
@@ -1408,7 +1413,7 @@
       <c r="H28" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="I28" s="1" t="n">
+      <c r="I28" s="2" t="n">
         <v>7</v>
       </c>
       <c r="J28" s="1" t="s">
@@ -1438,7 +1443,7 @@
       <c r="H29" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="I29" s="1" t="n">
+      <c r="I29" s="2" t="n">
         <v>10</v>
       </c>
       <c r="J29" s="1" t="s">
@@ -1468,7 +1473,7 @@
       <c r="H30" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="I30" s="1" t="n">
+      <c r="I30" s="2" t="n">
         <v>10</v>
       </c>
       <c r="J30" s="1" t="s">
@@ -1498,7 +1503,7 @@
       <c r="H31" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="I31" s="1" t="n">
+      <c r="I31" s="2" t="n">
         <v>10</v>
       </c>
       <c r="J31" s="1" t="s">
@@ -1528,7 +1533,7 @@
       <c r="H32" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="I32" s="1" t="n">
+      <c r="I32" s="2" t="n">
         <v>10</v>
       </c>
       <c r="J32" s="1" t="s">
@@ -1558,7 +1563,7 @@
       <c r="H33" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="I33" s="1" t="n">
+      <c r="I33" s="2" t="n">
         <v>10</v>
       </c>
       <c r="J33" s="1" t="s">
@@ -1588,7 +1593,7 @@
       <c r="H34" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="I34" s="1" t="n">
+      <c r="I34" s="2" t="n">
         <v>10</v>
       </c>
       <c r="J34" s="1" t="s">
@@ -1618,7 +1623,7 @@
       <c r="H35" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="I35" s="1" t="n">
+      <c r="I35" s="2" t="n">
         <v>10</v>
       </c>
       <c r="J35" s="1" t="s">
@@ -1648,7 +1653,7 @@
       <c r="H36" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="I36" s="1" t="n">
+      <c r="I36" s="2" t="n">
         <v>10</v>
       </c>
       <c r="J36" s="1" t="s">
